--- a/Code/Results/Cases/Case_3_195/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_195/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.05509481979131</v>
+        <v>19.69872420814777</v>
       </c>
       <c r="C2">
-        <v>13.06933470743852</v>
+        <v>10.02792530156427</v>
       </c>
       <c r="D2">
-        <v>5.494609046075169</v>
+        <v>8.762349761672796</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.83085670801729</v>
+        <v>35.17601278616402</v>
       </c>
       <c r="G2">
-        <v>2.095713628413991</v>
+        <v>3.671341164948863</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.937749272310966</v>
+        <v>10.4517895089887</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.073953412868327</v>
+        <v>11.79906010375989</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.66375450260787</v>
+        <v>26.7331436993317</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.46871988224526</v>
+        <v>19.14949602794881</v>
       </c>
       <c r="C3">
-        <v>12.48837338397134</v>
+        <v>9.776263997931203</v>
       </c>
       <c r="D3">
-        <v>5.389577916699011</v>
+        <v>8.758352327594721</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.69321818986619</v>
+        <v>35.31220929543376</v>
       </c>
       <c r="G3">
-        <v>2.101954957894581</v>
+        <v>3.673688856092156</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.026482938457673</v>
+        <v>10.48471291032264</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.820989646596452</v>
+        <v>11.77109248581744</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.6922676731249</v>
+        <v>26.85708774456107</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45091605337434</v>
+        <v>18.80584932469516</v>
       </c>
       <c r="C4">
-        <v>12.11847450942986</v>
+        <v>9.617961209899061</v>
       </c>
       <c r="D4">
-        <v>5.32580917469534</v>
+        <v>8.756786406887691</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.63634084625367</v>
+        <v>35.40552805979562</v>
       </c>
       <c r="G4">
-        <v>2.105900319174549</v>
+        <v>3.67520657776264</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.082659943790053</v>
+        <v>10.50598998336855</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.66421973076222</v>
+        <v>11.75524228523777</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.73080945760227</v>
+        <v>26.9402314876485</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.02279400179962</v>
+        <v>18.66439295784122</v>
       </c>
       <c r="C5">
-        <v>11.9645585555261</v>
+        <v>9.552572284319423</v>
       </c>
       <c r="D5">
-        <v>5.300028028005183</v>
+        <v>8.756372743332953</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.61985499556988</v>
+        <v>35.44598479904298</v>
       </c>
       <c r="G5">
-        <v>2.10753736675386</v>
+        <v>3.675844292555838</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.105986307979786</v>
+        <v>10.51492836855662</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.600051450657109</v>
+        <v>11.74911950815474</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.75154670261806</v>
+        <v>26.97587826497966</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.95089914776</v>
+        <v>18.64082460688844</v>
       </c>
       <c r="C6">
-        <v>11.93881336837862</v>
+        <v>9.541663581706779</v>
       </c>
       <c r="D6">
-        <v>5.295760180693216</v>
+        <v>8.75631764081556</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.61751394075024</v>
+        <v>35.45284902337908</v>
       </c>
       <c r="G6">
-        <v>2.107810989127827</v>
+        <v>3.675951347941727</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.109886054687015</v>
+        <v>10.51642877785702</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.589381740863892</v>
+        <v>11.74812324663826</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.75528643736278</v>
+        <v>26.98190382270185</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44519628409019</v>
+        <v>18.80394706544913</v>
       </c>
       <c r="C7">
-        <v>12.11641141967582</v>
+        <v>9.617082814003236</v>
       </c>
       <c r="D7">
-        <v>5.325460618796803</v>
+        <v>8.756779917907501</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.63609176568595</v>
+        <v>35.40606385235465</v>
       </c>
       <c r="G7">
-        <v>2.105922277349812</v>
+        <v>3.675215100259798</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.082972764831526</v>
+        <v>10.50610944421201</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.66335537001649</v>
+        <v>11.75515834467256</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.73106909717923</v>
+        <v>26.94070509355576</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.50906837363406</v>
+        <v>19.51079633410599</v>
       </c>
       <c r="C8">
-        <v>12.87183091392783</v>
+        <v>9.941978981616536</v>
       </c>
       <c r="D8">
-        <v>5.458258916065986</v>
+        <v>8.760787672126121</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.77751415249826</v>
+        <v>35.22095615842319</v>
       </c>
       <c r="G8">
-        <v>2.097842663327044</v>
+        <v>3.672134864916737</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.967997772848728</v>
+        <v>10.462921546515</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.987078935992868</v>
+        <v>11.78914486831413</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.66906491752453</v>
+        <v>26.77441474858544</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.25223688193081</v>
+        <v>20.83803209542954</v>
       </c>
       <c r="C9">
-        <v>14.24372162189342</v>
+        <v>10.54617866943292</v>
       </c>
       <c r="D9">
-        <v>5.72337778994401</v>
+        <v>8.775649834543227</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.28470798594218</v>
+        <v>34.9352618417667</v>
       </c>
       <c r="G9">
-        <v>2.0828567337677</v>
+        <v>3.666696538448063</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.755609001556585</v>
+        <v>10.38662144906004</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.607188631084348</v>
+        <v>11.86610396282755</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.7258370405318</v>
+        <v>26.5044417120294</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.72951512052579</v>
+        <v>21.76753622624952</v>
       </c>
       <c r="C10">
-        <v>15.17985145344409</v>
+        <v>10.96644761282133</v>
       </c>
       <c r="D10">
-        <v>5.919739356100823</v>
+        <v>8.790772907282072</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.81065052155058</v>
+        <v>34.7729977176269</v>
       </c>
       <c r="G10">
-        <v>2.072310626980601</v>
+        <v>3.663064015715037</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.607009364790971</v>
+        <v>10.3356300131896</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.050048565431924</v>
+        <v>11.92868209981742</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.89166463102375</v>
+        <v>26.34064426097234</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.79805888767155</v>
+        <v>22.17870610781431</v>
       </c>
       <c r="C11">
-        <v>15.58942645753094</v>
+        <v>11.15184690790492</v>
       </c>
       <c r="D11">
-        <v>6.009166834093489</v>
+        <v>8.798550413611387</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.0856353243868</v>
+        <v>34.70962522628148</v>
       </c>
       <c r="G11">
-        <v>2.067599560666904</v>
+        <v>3.661489464422273</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.540903090253256</v>
+        <v>10.31352229283561</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.248112197061239</v>
+        <v>11.95840372920931</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.99721925504906</v>
+        <v>26.27370247188195</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.19441779621342</v>
+        <v>22.33259741424586</v>
       </c>
       <c r="C12">
-        <v>15.74214264714746</v>
+        <v>11.22117235397011</v>
       </c>
       <c r="D12">
-        <v>6.04302701426077</v>
+        <v>8.801623251632329</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.1950766138866</v>
+        <v>34.68713707395631</v>
       </c>
       <c r="G12">
-        <v>2.065826766649707</v>
+        <v>3.660904360570963</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.516074837901433</v>
+        <v>10.30530641934412</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.322582478028989</v>
+        <v>11.96983370434242</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.04176861964737</v>
+        <v>26.24944781277919</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.10942089956543</v>
+        <v>22.29953662827278</v>
       </c>
       <c r="C13">
-        <v>15.70935887968722</v>
+        <v>11.20628181485737</v>
       </c>
       <c r="D13">
-        <v>6.035735074736992</v>
+        <v>8.800955806979623</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.17126771001123</v>
+        <v>34.69191303515021</v>
       </c>
       <c r="G13">
-        <v>2.066208092927834</v>
+        <v>3.661029878410009</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.521413100221961</v>
+        <v>10.30706893458167</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.306568251305185</v>
+        <v>11.96736435711193</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.03196668188951</v>
+        <v>26.25462270221808</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.83083272002773</v>
+        <v>22.19140382103389</v>
       </c>
       <c r="C14">
-        <v>15.60203841277303</v>
+        <v>11.15756828381844</v>
       </c>
       <c r="D14">
-        <v>6.011952712602722</v>
+        <v>8.79880066783547</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.09453176338907</v>
+        <v>34.70774481262784</v>
       </c>
       <c r="G14">
-        <v>2.067453495135369</v>
+        <v>3.661441104551055</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.538856409002304</v>
+        <v>10.31284324863654</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.254249799566173</v>
+        <v>11.95934060346414</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.00079122789515</v>
+        <v>26.27168505150358</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.65911535878267</v>
+        <v>22.12492996010111</v>
       </c>
       <c r="C15">
-        <v>15.5359904829635</v>
+        <v>11.12761367939701</v>
       </c>
       <c r="D15">
-        <v>5.997384280437347</v>
+        <v>8.79749716422914</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.04822521045879</v>
+        <v>34.71763906367185</v>
       </c>
       <c r="G15">
-        <v>2.068217758027684</v>
+        <v>3.661694442084249</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.549567306579327</v>
+        <v>10.3164004573666</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.222132772480022</v>
+        <v>11.9544484556549</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.98229872273343</v>
+        <v>26.28227898089546</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.65851860005803</v>
+        <v>21.7404189557145</v>
       </c>
       <c r="C16">
-        <v>15.15275347615332</v>
+        <v>10.95421061500774</v>
       </c>
       <c r="D16">
-        <v>5.913895462141451</v>
+        <v>8.790282574791162</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.79341373001124</v>
+        <v>34.77735008240088</v>
       </c>
       <c r="G16">
-        <v>2.072620141107647</v>
+        <v>3.663168478989808</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.61135876291501</v>
+        <v>10.33709664975757</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.037032387166724</v>
+        <v>11.92676451181705</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.88539381144615</v>
+        <v>26.34517192696895</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.02981545110492</v>
+        <v>21.50144771260146</v>
       </c>
       <c r="C17">
-        <v>14.91344817326533</v>
+        <v>10.84631549170931</v>
       </c>
       <c r="D17">
-        <v>5.862689881018858</v>
+        <v>8.786085627028568</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.64637464878786</v>
+        <v>34.81666124221586</v>
       </c>
       <c r="G17">
-        <v>2.075342138825045</v>
+        <v>3.664092664226576</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.64964117207103</v>
+        <v>10.35007140142226</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.922575926722743</v>
+        <v>11.91009886956907</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.83383896125801</v>
+        <v>26.38569807848186</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.66269931900112</v>
+        <v>21.36290675829617</v>
       </c>
       <c r="C18">
-        <v>14.77427569640929</v>
+        <v>10.78371540669469</v>
       </c>
       <c r="D18">
-        <v>5.833248347864409</v>
+        <v>8.783756264063067</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.56515562922305</v>
+        <v>34.84025440360514</v>
       </c>
       <c r="G18">
-        <v>2.076915973020256</v>
+        <v>3.664631567005856</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.671801288437388</v>
+        <v>10.35763663476232</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.856426112438125</v>
+        <v>11.90063164753499</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.80700673412626</v>
+        <v>26.40971985935219</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.53745143858343</v>
+        <v>21.31581602984764</v>
       </c>
       <c r="C19">
-        <v>14.72689290634618</v>
+        <v>10.76242864878678</v>
       </c>
       <c r="D19">
-        <v>5.823282366726451</v>
+        <v>8.782982157014418</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.53822678711987</v>
+        <v>34.84841112213856</v>
       </c>
       <c r="G19">
-        <v>2.077450293128189</v>
+        <v>3.664815291933021</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.679328849383888</v>
+        <v>10.36021571828641</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.833975857725044</v>
+        <v>11.89744670680778</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.7983985748508</v>
+        <v>26.41797535658655</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.09731063170015</v>
+        <v>21.52700052414354</v>
       </c>
       <c r="C20">
-        <v>14.93908135957373</v>
+        <v>10.85785754579958</v>
       </c>
       <c r="D20">
-        <v>5.868139851089653</v>
+        <v>8.786523652782575</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.6616787858193</v>
+        <v>34.81237476538796</v>
       </c>
       <c r="G20">
-        <v>2.075051536184947</v>
+        <v>3.663993524313562</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.645551412533402</v>
+        <v>10.34867961367486</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.934793213332274</v>
+        <v>11.91186073839382</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.83903330253987</v>
+        <v>26.38131024472076</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.91288443244286</v>
+        <v>22.22321515525665</v>
       </c>
       <c r="C21">
-        <v>15.63362591037636</v>
+        <v>11.1719009186724</v>
       </c>
       <c r="D21">
-        <v>6.018938417788069</v>
+        <v>8.799430231603383</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.11692554986632</v>
+        <v>34.70305360284905</v>
       </c>
       <c r="G21">
-        <v>2.067087397145119</v>
+        <v>3.661320015462153</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.533727409551431</v>
+        <v>10.31114296863328</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.269631749091115</v>
+        <v>11.96169266754245</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.00982204865058</v>
+        <v>26.26664366663291</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.05129085716069</v>
+        <v>22.66763035041606</v>
       </c>
       <c r="C22">
-        <v>16.07366334113691</v>
+        <v>11.37198996593224</v>
       </c>
       <c r="D22">
-        <v>6.11746314980569</v>
+        <v>8.808608833478502</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.44547867882838</v>
+        <v>34.64040862068528</v>
       </c>
       <c r="G22">
-        <v>2.061946916602021</v>
+        <v>3.659637655418847</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.461832629483628</v>
+        <v>10.2875186424694</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.485351688017506</v>
+        <v>11.99527835962634</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.14823416375375</v>
+        <v>26.19808619931942</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.44806902232195</v>
+        <v>22.43144800554971</v>
       </c>
       <c r="C23">
-        <v>15.84008773803744</v>
+        <v>11.26568573574335</v>
       </c>
       <c r="D23">
-        <v>6.064887094317013</v>
+        <v>8.803642518255094</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.26723209218795</v>
+        <v>34.67303543608693</v>
       </c>
       <c r="G23">
-        <v>2.064685017794582</v>
+        <v>3.660529640226323</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.500098810117143</v>
+        <v>10.3000445305583</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.370515506594245</v>
+        <v>11.97726174761518</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.07183068839172</v>
+        <v>26.23409049956706</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.06681371887476</v>
+        <v>21.51545167983641</v>
       </c>
       <c r="C24">
-        <v>14.92749755362094</v>
+        <v>10.85264115398649</v>
       </c>
       <c r="D24">
-        <v>5.86567592678202</v>
+        <v>8.786325361094883</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.65474947101768</v>
+        <v>34.81430959006965</v>
       </c>
       <c r="G24">
-        <v>2.075182889757326</v>
+        <v>3.664038321863641</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.647399921593868</v>
+        <v>10.3493085110603</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.929270856308561</v>
+        <v>11.91106384176191</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.83667621545255</v>
+        <v>26.38329173342676</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.28741635703629</v>
+        <v>20.4863407426591</v>
       </c>
       <c r="C25">
-        <v>13.88490351259352</v>
+        <v>10.38663787905199</v>
       </c>
       <c r="D25">
-        <v>5.651290137209651</v>
+        <v>8.770885988177096</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.12145794074502</v>
+        <v>35.00421996796262</v>
       </c>
       <c r="G25">
-        <v>2.086824817934731</v>
+        <v>3.668103714263384</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.8117193604702</v>
+        <v>10.40636942385796</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.441425476416924</v>
+        <v>11.84420549341354</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.68977677492999</v>
+        <v>26.57143315949245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_195/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_195/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.69872420814777</v>
+        <v>24.05509481979135</v>
       </c>
       <c r="C2">
-        <v>10.02792530156427</v>
+        <v>13.06933470743826</v>
       </c>
       <c r="D2">
-        <v>8.762349761672796</v>
+        <v>5.494609046074979</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.17601278616402</v>
+        <v>22.83085670801719</v>
       </c>
       <c r="G2">
-        <v>3.671341164948863</v>
+        <v>2.095713628414258</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.4517895089887</v>
+        <v>5.937749272310898</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.79906010375989</v>
+        <v>8.073953412868295</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.7331436993317</v>
+        <v>16.66375450260787</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.14949602794881</v>
+        <v>22.46871988224527</v>
       </c>
       <c r="C3">
-        <v>9.776263997931203</v>
+        <v>12.48837338397124</v>
       </c>
       <c r="D3">
-        <v>8.758352327594721</v>
+        <v>5.389577916699047</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.31220929543376</v>
+        <v>22.693218189866</v>
       </c>
       <c r="G3">
-        <v>3.673688856092156</v>
+        <v>2.10195495789458</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.48471291032264</v>
+        <v>6.026482938457608</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.77109248581744</v>
+        <v>7.820989646596418</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.85708774456107</v>
+        <v>16.69226767312472</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.80584932469516</v>
+        <v>21.45091605337433</v>
       </c>
       <c r="C4">
-        <v>9.617961209899061</v>
+        <v>12.11847450942983</v>
       </c>
       <c r="D4">
-        <v>8.756786406887691</v>
+        <v>5.325809174695287</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.40552805979562</v>
+        <v>22.63634084625372</v>
       </c>
       <c r="G4">
-        <v>3.67520657776264</v>
+        <v>2.105900319174549</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.50598998336855</v>
+        <v>6.082659943790087</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.75524228523777</v>
+        <v>7.664219730762212</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.9402314876485</v>
+        <v>16.73080945760233</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66439295784122</v>
+        <v>21.02279400179962</v>
       </c>
       <c r="C5">
-        <v>9.552572284319423</v>
+        <v>11.96455855552613</v>
       </c>
       <c r="D5">
-        <v>8.756372743332953</v>
+        <v>5.300028028005307</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.44598479904298</v>
+        <v>22.61985499557005</v>
       </c>
       <c r="G5">
-        <v>3.675844292555838</v>
+        <v>2.107537366754261</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.51492836855662</v>
+        <v>6.105986307979721</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.74911950815474</v>
+        <v>7.600051450657137</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.97587826497966</v>
+        <v>16.75154670261815</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.64082460688844</v>
+        <v>20.95089914776</v>
       </c>
       <c r="C6">
-        <v>9.541663581706779</v>
+        <v>11.93881336837877</v>
       </c>
       <c r="D6">
-        <v>8.75631764081556</v>
+        <v>5.295760180693161</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.45284902337908</v>
+        <v>22.61751394075013</v>
       </c>
       <c r="G6">
-        <v>3.675951347941727</v>
+        <v>2.107810989127693</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.51642877785702</v>
+        <v>6.109886054687014</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.74812324663826</v>
+        <v>7.589381740863772</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.98190382270185</v>
+        <v>16.75528643736268</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.80394706544913</v>
+        <v>21.44519628409021</v>
       </c>
       <c r="C7">
-        <v>9.617082814003236</v>
+        <v>12.11641141967593</v>
       </c>
       <c r="D7">
-        <v>8.756779917907501</v>
+        <v>5.325460618796957</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.40606385235465</v>
+        <v>22.6360917656862</v>
       </c>
       <c r="G7">
-        <v>3.675215100259798</v>
+        <v>2.105922277350213</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.50610944421201</v>
+        <v>6.082972764831393</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.75515834467256</v>
+        <v>7.663355370016451</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.94070509355576</v>
+        <v>16.73106909717933</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.51079633410599</v>
+        <v>23.50906837363408</v>
       </c>
       <c r="C8">
-        <v>9.941978981616536</v>
+        <v>12.87183091392778</v>
       </c>
       <c r="D8">
-        <v>8.760787672126121</v>
+        <v>5.458258916065986</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.22095615842319</v>
+        <v>22.77751415249814</v>
       </c>
       <c r="G8">
-        <v>3.672134864916737</v>
+        <v>2.097842663327312</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.462921546515</v>
+        <v>5.967997772848695</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.78914486831413</v>
+        <v>7.987078935992893</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.77441474858544</v>
+        <v>16.66906491752444</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.83803209542954</v>
+        <v>27.2522368819308</v>
       </c>
       <c r="C9">
-        <v>10.54617866943292</v>
+        <v>14.24372162189346</v>
       </c>
       <c r="D9">
-        <v>8.775649834543227</v>
+        <v>5.723377789943696</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.9352618417667</v>
+        <v>23.28470798594198</v>
       </c>
       <c r="G9">
-        <v>3.666696538448063</v>
+        <v>2.082856733767298</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.38662144906004</v>
+        <v>5.755609001556616</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.86610396282755</v>
+        <v>8.607188631084265</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.5044417120294</v>
+        <v>16.72583704053179</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.76753622624952</v>
+        <v>29.72951512052574</v>
       </c>
       <c r="C10">
-        <v>10.96644761282133</v>
+        <v>15.17985145344406</v>
       </c>
       <c r="D10">
-        <v>8.790772907282072</v>
+        <v>5.919739356100806</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.7729977176269</v>
+        <v>23.81065052155069</v>
       </c>
       <c r="G10">
-        <v>3.663064015715037</v>
+        <v>2.072310626980736</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.3356300131896</v>
+        <v>5.607009364791038</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.92868209981742</v>
+        <v>9.050048565431936</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.34064426097234</v>
+        <v>16.89166463102384</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.17870610781431</v>
+        <v>30.79805888767147</v>
       </c>
       <c r="C11">
-        <v>11.15184690790492</v>
+        <v>15.58942645753094</v>
       </c>
       <c r="D11">
-        <v>8.798550413611387</v>
+        <v>6.009166834093405</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.70962522628148</v>
+        <v>24.0856353243869</v>
       </c>
       <c r="G11">
-        <v>3.661489464422273</v>
+        <v>2.067599560667039</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.31352229283561</v>
+        <v>5.540903090253352</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.95840372920931</v>
+        <v>9.248112197061234</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.27370247188195</v>
+        <v>16.99721925504917</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.33259741424586</v>
+        <v>31.19441779621346</v>
       </c>
       <c r="C12">
-        <v>11.22117235397011</v>
+        <v>15.74214264714741</v>
       </c>
       <c r="D12">
-        <v>8.801623251632329</v>
+        <v>6.043027014260855</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.68713707395631</v>
+        <v>24.19507661388659</v>
       </c>
       <c r="G12">
-        <v>3.660904360570963</v>
+        <v>2.06582676664984</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.30530641934412</v>
+        <v>5.5160748379015</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.96983370434242</v>
+        <v>9.322582478029025</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.24944781277919</v>
+        <v>17.04176861964733</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.29953662827278</v>
+        <v>31.10942089956544</v>
       </c>
       <c r="C13">
-        <v>11.20628181485737</v>
+        <v>15.70935887968704</v>
       </c>
       <c r="D13">
-        <v>8.800955806979623</v>
+        <v>6.035735074736992</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.69191303515021</v>
+        <v>24.17126771001124</v>
       </c>
       <c r="G13">
-        <v>3.661029878410009</v>
+        <v>2.0662080929277</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.30706893458167</v>
+        <v>5.521413100221931</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.96736435711193</v>
+        <v>9.306568251305203</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.25462270221808</v>
+        <v>17.03196668188956</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.19140382103389</v>
+        <v>30.83083272002775</v>
       </c>
       <c r="C14">
-        <v>11.15756828381844</v>
+        <v>15.60203841277315</v>
       </c>
       <c r="D14">
-        <v>8.79880066783547</v>
+        <v>6.011952712602758</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.70774481262784</v>
+        <v>24.09453176338905</v>
       </c>
       <c r="G14">
-        <v>3.661441104551055</v>
+        <v>2.067453495135635</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.31284324863654</v>
+        <v>5.538856409002334</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.95934060346414</v>
+        <v>9.2542497995662</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.27168505150358</v>
+        <v>17.00079122789515</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.12492996010111</v>
+        <v>30.65911535878266</v>
       </c>
       <c r="C15">
-        <v>11.12761367939701</v>
+        <v>15.53599048296338</v>
       </c>
       <c r="D15">
-        <v>8.79749716422914</v>
+        <v>5.997384280437174</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.71763906367185</v>
+        <v>24.04822521045887</v>
       </c>
       <c r="G15">
-        <v>3.661694442084249</v>
+        <v>2.068217758027819</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.3164004573666</v>
+        <v>5.549567306579425</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.9544484556549</v>
+        <v>9.222132772480045</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.28227898089546</v>
+        <v>16.98229872273352</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.7404189557145</v>
+        <v>29.65851860005803</v>
       </c>
       <c r="C16">
-        <v>10.95421061500774</v>
+        <v>15.15275347615317</v>
       </c>
       <c r="D16">
-        <v>8.790282574791162</v>
+        <v>5.913895462141414</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.77735008240088</v>
+        <v>23.7934137300112</v>
       </c>
       <c r="G16">
-        <v>3.663168478989808</v>
+        <v>2.072620141107781</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.33709664975757</v>
+        <v>5.611358762915016</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.92676451181705</v>
+        <v>9.037032387166692</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.34517192696895</v>
+        <v>16.88539381144616</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.50144771260146</v>
+        <v>29.02981545110488</v>
       </c>
       <c r="C17">
-        <v>10.84631549170931</v>
+        <v>14.91344817326533</v>
       </c>
       <c r="D17">
-        <v>8.786085627028568</v>
+        <v>5.862689881018845</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.81666124221586</v>
+        <v>23.64637464878795</v>
       </c>
       <c r="G17">
-        <v>3.664092664226576</v>
+        <v>2.075342138824912</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.35007140142226</v>
+        <v>5.649641172071063</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.91009886956907</v>
+        <v>8.922575926722748</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.38569807848186</v>
+        <v>16.83383896125806</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.36290675829617</v>
+        <v>28.66269931900118</v>
       </c>
       <c r="C18">
-        <v>10.78371540669469</v>
+        <v>14.77427569640914</v>
       </c>
       <c r="D18">
-        <v>8.783756264063067</v>
+        <v>5.833248347864313</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>34.84025440360514</v>
+        <v>23.56515562922288</v>
       </c>
       <c r="G18">
-        <v>3.664631567005856</v>
+        <v>2.076915973019991</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.35763663476232</v>
+        <v>5.671801288437255</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.90063164753499</v>
+        <v>8.856426112438083</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.40971985935219</v>
+        <v>16.80700673412612</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.31581602984764</v>
+        <v>28.53745143858347</v>
       </c>
       <c r="C19">
-        <v>10.76242864878678</v>
+        <v>14.72689290634607</v>
       </c>
       <c r="D19">
-        <v>8.782982157014418</v>
+        <v>5.823282366726444</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>34.84841112213856</v>
+        <v>23.53822678711987</v>
       </c>
       <c r="G19">
-        <v>3.664815291933021</v>
+        <v>2.077450293128189</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.36021571828641</v>
+        <v>5.679328849383823</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.89744670680778</v>
+        <v>8.833975857725052</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.41797535658655</v>
+        <v>16.7983985748508</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.52700052414354</v>
+        <v>29.09731063170021</v>
       </c>
       <c r="C20">
-        <v>10.85785754579958</v>
+        <v>14.93908135957366</v>
       </c>
       <c r="D20">
-        <v>8.786523652782575</v>
+        <v>5.868139851089709</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.81237476538796</v>
+        <v>23.66167878581919</v>
       </c>
       <c r="G20">
-        <v>3.663993524313562</v>
+        <v>2.075051536184947</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.34867961367486</v>
+        <v>5.645551412533304</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.91186073839382</v>
+        <v>8.934793213332313</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.38131024472076</v>
+        <v>16.83903330253974</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.22321515525665</v>
+        <v>30.9128844324428</v>
       </c>
       <c r="C21">
-        <v>11.1719009186724</v>
+        <v>15.63362591037624</v>
       </c>
       <c r="D21">
-        <v>8.799430231603383</v>
+        <v>6.018938417788113</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.70305360284905</v>
+        <v>24.1169255498665</v>
       </c>
       <c r="G21">
-        <v>3.661320015462153</v>
+        <v>2.067087397145385</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.31114296863328</v>
+        <v>5.533727409551402</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.96169266754245</v>
+        <v>9.269631749091102</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.26664366663291</v>
+        <v>17.00982204865074</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.66763035041606</v>
+        <v>32.0512908571607</v>
       </c>
       <c r="C22">
-        <v>11.37198996593224</v>
+        <v>16.07366334113699</v>
       </c>
       <c r="D22">
-        <v>8.808608833478502</v>
+        <v>6.11746314980565</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.64040862068528</v>
+        <v>24.44547867882827</v>
       </c>
       <c r="G22">
-        <v>3.659637655418847</v>
+        <v>2.06194691660202</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.2875186424694</v>
+        <v>5.461832629483628</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.99527835962634</v>
+        <v>9.485351688017479</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.19808619931942</v>
+        <v>17.14823416375366</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.43144800554971</v>
+        <v>31.44806902232195</v>
       </c>
       <c r="C23">
-        <v>11.26568573574335</v>
+        <v>15.84008773803754</v>
       </c>
       <c r="D23">
-        <v>8.803642518255094</v>
+        <v>6.06488709431692</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.67303543608693</v>
+        <v>24.26723209218786</v>
       </c>
       <c r="G23">
-        <v>3.660529640226323</v>
+        <v>2.064685017794716</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.3000445305583</v>
+        <v>5.500098810117171</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.97726174761518</v>
+        <v>9.370515506594218</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.23409049956706</v>
+        <v>17.07183068839166</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.51545167983641</v>
+        <v>29.06681371887476</v>
       </c>
       <c r="C24">
-        <v>10.85264115398649</v>
+        <v>14.92749755362086</v>
       </c>
       <c r="D24">
-        <v>8.786325361094883</v>
+        <v>5.865675926782019</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.81430959006965</v>
+        <v>23.65474947101773</v>
       </c>
       <c r="G24">
-        <v>3.664038321863641</v>
+        <v>2.075182889757059</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.3493085110603</v>
+        <v>5.647399921593868</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.91106384176191</v>
+        <v>8.929270856308568</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.38329173342676</v>
+        <v>16.8366762154526</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.4863407426591</v>
+        <v>26.28741635703632</v>
       </c>
       <c r="C25">
-        <v>10.38663787905199</v>
+        <v>13.88490351259345</v>
       </c>
       <c r="D25">
-        <v>8.770885988177096</v>
+        <v>5.651290137209545</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.00421996796262</v>
+        <v>23.12145794074492</v>
       </c>
       <c r="G25">
-        <v>3.668103714263384</v>
+        <v>2.086824817934462</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.40636942385796</v>
+        <v>5.811719360470105</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.84420549341354</v>
+        <v>8.441425476416912</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.57143315949245</v>
+        <v>16.68977677492986</v>
       </c>
     </row>
   </sheetData>
